--- a/Power BI+DAX/Pacote/Fontes/EXCEL/000_COMPLETAR.xlsx
+++ b/Power BI+DAX/Pacote/Fontes/EXCEL/000_COMPLETAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EAD\Power BI 3\Fontes\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Curso_PowerBi\Power BI+DAX\Pacote\Fontes\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DD02C6-C0FB-42EF-8917-D37DF300054A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846E4C28-974A-4572-B3A1-97000C92E9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{77CBE4C3-D1AE-41B9-96C0-B190210791E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{77CBE4C3-D1AE-41B9-96C0-B190210791E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Carga1" sheetId="1" r:id="rId1"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B189A-77F6-43E0-BD61-37601C34DA04}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE4B400-50C9-46D9-8756-92ED0B50FAB5}">
   <dimension ref="B3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21:D21"/>
     </sheetView>
   </sheetViews>
